--- a/resources/wheels/177 - Харитонов.xlsx
+++ b/resources/wheels/177 - Харитонов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Колесо1" sheetId="5" r:id="rId1"/>
@@ -699,22 +699,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>9.2900000000000009</v>
+        <v>15.509</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -991,7 +991,9 @@
       <c r="E21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -1003,7 +1005,9 @@
       <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1015,7 +1019,9 @@
       <c r="E23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1573,22 +1579,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,7 +1803,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>9.2900000000000009</v>
+        <v>15.509</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1865,7 +1871,9 @@
       <c r="E21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -1877,7 +1885,9 @@
       <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1889,7 +1899,9 @@
       <c r="E23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -2447,22 +2459,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2681,7 +2693,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>35.589999999999996</v>
+        <v>41.808999999999997</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2791,7 +2803,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2803,7 +2817,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2815,7 +2831,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3349,22 +3367,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3583,7 +3601,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>35.589999999999996</v>
+        <v>41.808999999999997</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3693,7 +3711,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3705,7 +3725,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3717,7 +3739,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4257,16 +4281,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4487,7 +4511,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>78.39</v>
+        <v>84.608999999999995</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4597,7 +4621,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4609,7 +4635,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4621,7 +4649,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5155,22 +5185,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5391,7 +5421,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>78.39</v>
+        <v>84.608999999999995</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5501,7 +5531,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5513,7 +5545,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5525,7 +5559,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6062,22 +6098,22 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6290,7 +6326,7 @@
       </c>
       <c r="G16" s="23">
         <f>SUM(F16:F100)</f>
-        <v>139.69</v>
+        <v>145.90900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6400,7 +6436,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6412,7 +6450,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>2.258</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6424,7 +6464,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23">
+        <v>1.782</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/177 - Харитонов.xlsx
+++ b/resources/wheels/177 - Харитонов.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="58">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>AM 3434-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -705,16 +741,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="27" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,9 +957,9 @@
       <c r="F16" s="23">
         <v>0.1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.509</v>
+        <v>19.798000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1033,7 +1069,9 @@
       <c r="E24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1045,7 +1083,9 @@
       <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1057,7 +1097,9 @@
       <c r="E26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1585,16 +1627,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="27" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1801,9 +1843,9 @@
       <c r="F16" s="23">
         <v>0.1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.509</v>
+        <v>19.798000000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1913,7 +1955,9 @@
       <c r="E24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1925,7 +1969,9 @@
       <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1937,7 +1983,9 @@
       <c r="E26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -2465,16 +2513,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,9 +2739,9 @@
       <c r="F16" s="23">
         <v>25.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>41.808999999999997</v>
+        <v>46.09799999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2845,7 +2893,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2857,7 +2907,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2869,7 +2921,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -3373,16 +3427,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,9 +3653,9 @@
       <c r="F16" s="23">
         <v>25.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>41.808999999999997</v>
+        <v>46.09799999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3753,7 +3807,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3765,7 +3821,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3777,7 +3835,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4275,22 +4335,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,9 +4569,9 @@
       <c r="F16" s="23">
         <v>68.7</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>84.608999999999995</v>
+        <v>88.898</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4663,7 +4723,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4675,7 +4737,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4687,7 +4751,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4696,8 +4762,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -4706,7 +4776,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4716,7 +4788,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4726,7 +4800,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4736,7 +4812,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4746,7 +4824,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4756,7 +4836,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4766,7 +4848,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4776,7 +4860,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -4786,7 +4872,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -4796,7 +4884,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -4806,7 +4896,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -5191,16 +5283,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,9 +5511,9 @@
       <c r="F16" s="23">
         <v>68.7</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>84.608999999999995</v>
+        <v>88.898</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5573,7 +5665,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5585,7 +5679,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5597,7 +5693,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6104,16 +6202,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6324,9 +6422,9 @@
       <c r="F16" s="23">
         <v>130</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>145.90900000000002</v>
+        <v>150.198</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6478,7 +6576,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>1.66</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6490,7 +6590,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.76</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6502,7 +6604,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.869</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
